--- a/X-path-1.xlsx
+++ b/X-path-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT........2\REPO_BHARATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15661F95-4070-43D8-B55D-073D81EF2760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4D560-76F9-41B7-A9AE-DCACE041EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AABAAB91-9301-40D3-851D-08ECFD41CCAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Sign-In</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>//span[@class='xhb22t3 xb5gni xcj1dhv x6s0dn4 x78zum5 xuxw1ft x47corl x1ye3gou']</t>
+  </si>
+  <si>
+    <t>Edit profile</t>
+  </si>
+  <si>
+    <t>//div[@aria-label='Edit profile']</t>
   </si>
 </sst>
 </file>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA7B60-F2AD-40D3-9B51-966FA9A8130F}">
-  <dimension ref="A2:C35"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,6 +708,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/X-path-1.xlsx
+++ b/X-path-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT........2\REPO_BHARATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F4D560-76F9-41B7-A9AE-DCACE041EA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C62748-B2F7-410A-93F3-D9870CE77FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AABAAB91-9301-40D3-851D-08ECFD41CCAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Sign-In</t>
   </si>
@@ -142,13 +142,94 @@
   </si>
   <si>
     <t>//div[@aria-label='Edit profile']</t>
+  </si>
+  <si>
+    <t>You Tube</t>
+  </si>
+  <si>
+    <t>//a[@id='logo']</t>
+  </si>
+  <si>
+    <t>Serach</t>
+  </si>
+  <si>
+    <t>//input[@id='search']</t>
+  </si>
+  <si>
+    <t>Serach Icon</t>
+  </si>
+  <si>
+    <t>//button[@id='search-icon-legacy']</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Search with your voice']</t>
+  </si>
+  <si>
+    <t>Hamberg</t>
+  </si>
+  <si>
+    <t>//yt-icon[@id='guide-icon']</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>//a[@title='Home']</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>//yt-formatted-string[@title='All']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next </t>
+  </si>
+  <si>
+    <t>//div[@class='yt-spec-button-shape-next__icon']</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>//button[@aria-label='Settings']</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>//a[@title='Settings']</t>
+  </si>
+  <si>
+    <t>KYC</t>
+  </si>
+  <si>
+    <t>//a[@href='https://exlink.pmkisan.gov.in/aadharekyc.aspx']</t>
+  </si>
+  <si>
+    <t>https://pmkisan.gov.in/</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>//div[@class='owl-prev']</t>
+  </si>
+  <si>
+    <t>Select Control</t>
+  </si>
+  <si>
+    <t>//select[@class='form-control']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +240,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,14 +277,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -501,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA7B60-F2AD-40D3-9B51-966FA9A8130F}">
-  <dimension ref="A2:C36"/>
+  <dimension ref="A2:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,8 +819,169 @@
         <v>35</v>
       </c>
     </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B56" r:id="rId1" xr:uid="{5C13704A-24BE-48A4-8D65-1B1D994EC8F3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/X-path-1.xlsx
+++ b/X-path-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT........2\REPO_BHARATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C62748-B2F7-410A-93F3-D9870CE77FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B7868-CDA3-4EB5-A03A-834951ADE117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AABAAB91-9301-40D3-851D-08ECFD41CCAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>Sign-In</t>
   </si>
@@ -223,6 +223,111 @@
   </si>
   <si>
     <t>//select[@class='form-control']</t>
+  </si>
+  <si>
+    <t>Orange HRM</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>//input[@name='username']</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>//input[@type='password']</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Forgotten PW</t>
+  </si>
+  <si>
+    <t>//p[.='Forgot your password? ']</t>
+  </si>
+  <si>
+    <t>Right click</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-chevron-right']</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search']</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>//a[@href='/web/index.php/admin/viewAdminModule']</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>//span[@class='oxd-userdropdown-tab']</t>
+  </si>
+  <si>
+    <t>new tab (Question mark)</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-question-lg']</t>
+  </si>
+  <si>
+    <t>Type name</t>
+  </si>
+  <si>
+    <t>//input[@class='oxd-input oxd-input--active']</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>//button[.=' Reset ']</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-trash']</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>//div[@class='oxd-select-text-input']</t>
+  </si>
+  <si>
+    <t>new link</t>
+  </si>
+  <si>
+    <t>//a[.='OrangeHRM, Inc']</t>
+  </si>
+  <si>
+    <t>profile poto</t>
+  </si>
+  <si>
+    <t>//i[@class='oxd-icon bi-plus']</t>
+  </si>
+  <si>
+    <t>//a[@class='orangehrm-tabs-item --active']</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>//img[@src='/web/images/orange.png?v=1689053487449']</t>
+  </si>
+  <si>
+    <t>Type for hints</t>
+  </si>
+  <si>
+    <t>//input[@data-v-75e744cd=""]</t>
   </si>
 </sst>
 </file>
@@ -601,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA7B60-F2AD-40D3-9B51-966FA9A8130F}">
-  <dimension ref="A2:C61"/>
+  <dimension ref="A2:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,9 +1077,212 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>18</v>
+      </c>
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/X-path-1.xlsx
+++ b/X-path-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT........2\REPO_BHARATH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67B7868-CDA3-4EB5-A03A-834951ADE117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05194725-89BD-45DD-BAAD-3B8DC5DC12E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AABAAB91-9301-40D3-851D-08ECFD41CCAE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Sign-In</t>
   </si>
@@ -328,6 +328,63 @@
   </si>
   <si>
     <t>//input[@data-v-75e744cd=""]</t>
+  </si>
+  <si>
+    <t>Trivago</t>
+  </si>
+  <si>
+    <t>//span[text()='Favorites']</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Search button</t>
+  </si>
+  <si>
+    <t>//button[@type='button'    and  @data-testid='search-button']</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>//img[@src='https://imgcy.trivago.com/image/upload/hardcodedimages/mpm-localised-logos-dark/2452.png']</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>//span[@class='leading-none inline-flex items-center justify-center h-full w-full transform']</t>
+  </si>
+  <si>
+    <t>Email-Address</t>
+  </si>
+  <si>
+    <t>//label[text()='Email address']</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>//select[@name='country']</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>//span[@class='leading-none inline-flex h-full w-full transform']</t>
+  </si>
+  <si>
+    <t>Hotels in Hyderbad</t>
+  </si>
+  <si>
+    <t>//a[@href='/en-IN/odr/hotels-hyderabad-india?search=200-64958']</t>
+  </si>
+  <si>
+    <t>check In</t>
+  </si>
+  <si>
+    <t>//span[@class='text-m leading-normal font-bold truncate text-grey-900']</t>
   </si>
 </sst>
 </file>
@@ -706,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEA7B60-F2AD-40D3-9B51-966FA9A8130F}">
-  <dimension ref="A2:C86"/>
+  <dimension ref="A2:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,9 +1337,108 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>19</v>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
